--- a/Lista vocabulario.xlsx
+++ b/Lista vocabulario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Niños\Pablo Boronat\La Salle\10. 1ºESO\Deber y estudio\Inglés\App Vocabulary Pablo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D4BB1D-4F49-4818-A94E-8F16945C074B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4C1505-2068-4AC9-9855-DCBDED66C6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D3A4DA7-A6CB-463D-B382-D9CDF113DD1D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="376">
   <si>
     <t>School utensils – Útiles escolares</t>
   </si>
@@ -1068,9 +1068,6 @@
     <t>skirt</t>
   </si>
   <si>
-    <t>Shoes</t>
-  </si>
-  <si>
     <t>leggings</t>
   </si>
   <si>
@@ -1137,9 +1134,6 @@
     <t>traje</t>
   </si>
   <si>
-    <t>Falda</t>
-  </si>
-  <si>
     <t>zapatos</t>
   </si>
   <si>
@@ -1162,6 +1156,15 @@
   </si>
   <si>
     <t>Clothes to describe - Ropa para describir</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>falda</t>
+  </si>
+  <si>
+    <t>shoes</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1544,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H169" sqref="H169"/>
+      <selection pane="bottomLeft" activeCell="I172" sqref="I172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3950,7 +3953,7 @@
         <v>309</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ref="H131:H151" si="2">CONCATENATE(E131," ","-"," ",F131)</f>
+        <f t="shared" ref="H131:H176" si="2">CONCATENATE(E131," ","-"," ",F131)</f>
         <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
@@ -4313,13 +4316,13 @@
         <v>324</v>
       </c>
       <c r="C151" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E151" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F151" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="2"/>
@@ -4331,13 +4334,17 @@
         <v>325</v>
       </c>
       <c r="C152" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E152" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F152" t="s">
-        <v>374</v>
+        <v>372</v>
+      </c>
+      <c r="H152" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -4345,13 +4352,17 @@
         <v>326</v>
       </c>
       <c r="C153" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E153" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F153" t="s">
-        <v>374</v>
+        <v>372</v>
+      </c>
+      <c r="H153" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -4359,27 +4370,38 @@
         <v>327</v>
       </c>
       <c r="C154" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E154" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F154" t="s">
-        <v>374</v>
+        <v>372</v>
+      </c>
+      <c r="H154" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>328</v>
       </c>
+      <c r="B155" t="s">
+        <v>373</v>
+      </c>
       <c r="C155" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E155" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F155" t="s">
-        <v>374</v>
+        <v>372</v>
+      </c>
+      <c r="H155" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -4387,13 +4409,17 @@
         <v>329</v>
       </c>
       <c r="C156" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E156" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F156" t="s">
-        <v>374</v>
+        <v>372</v>
+      </c>
+      <c r="H156" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -4401,13 +4427,17 @@
         <v>330</v>
       </c>
       <c r="C157" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E157" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F157" t="s">
-        <v>374</v>
+        <v>372</v>
+      </c>
+      <c r="H157" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -4415,13 +4445,17 @@
         <v>331</v>
       </c>
       <c r="C158" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E158" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F158" t="s">
-        <v>374</v>
+        <v>372</v>
+      </c>
+      <c r="H158" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -4429,13 +4463,17 @@
         <v>332</v>
       </c>
       <c r="C159" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E159" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F159" t="s">
-        <v>374</v>
+        <v>372</v>
+      </c>
+      <c r="H159" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -4446,234 +4484,314 @@
         <v>333</v>
       </c>
       <c r="E160" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F160" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="H160" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>334</v>
       </c>
       <c r="C161" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E161" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F161" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="H161" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>335</v>
       </c>
+      <c r="B162" t="s">
+        <v>348</v>
+      </c>
       <c r="C162" t="s">
-        <v>360</v>
+        <v>359</v>
+      </c>
+      <c r="D162" t="s">
+        <v>370</v>
       </c>
       <c r="E162" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F162" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="H162" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>336</v>
       </c>
       <c r="C163" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E163" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F163" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="H163" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>337</v>
       </c>
+      <c r="B164" t="s">
+        <v>338</v>
+      </c>
       <c r="C164" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E164" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F164" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="H164" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>338</v>
       </c>
+      <c r="B165" t="s">
+        <v>337</v>
+      </c>
       <c r="C165" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E165" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F165" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="H165" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>339</v>
       </c>
       <c r="C166" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E166" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F166" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="H166" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>340</v>
       </c>
       <c r="C167" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E167" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F167" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="H167" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>341</v>
       </c>
       <c r="C168" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E168" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F168" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="H168" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>342</v>
       </c>
       <c r="C169" t="s">
+        <v>374</v>
+      </c>
+      <c r="E169" t="s">
+        <v>371</v>
+      </c>
+      <c r="F169" t="s">
+        <v>372</v>
+      </c>
+      <c r="H169" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>375</v>
+      </c>
+      <c r="C170" t="s">
+        <v>365</v>
+      </c>
+      <c r="E170" t="s">
+        <v>371</v>
+      </c>
+      <c r="F170" t="s">
+        <v>372</v>
+      </c>
+      <c r="H170" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>343</v>
+      </c>
+      <c r="C171" t="s">
+        <v>343</v>
+      </c>
+      <c r="E171" t="s">
+        <v>371</v>
+      </c>
+      <c r="F171" t="s">
+        <v>372</v>
+      </c>
+      <c r="H171" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>344</v>
+      </c>
+      <c r="C172" t="s">
         <v>366</v>
       </c>
-      <c r="E169" t="s">
-        <v>373</v>
-      </c>
-      <c r="F169" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>343</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="E172" t="s">
+        <v>371</v>
+      </c>
+      <c r="F172" t="s">
+        <v>372</v>
+      </c>
+      <c r="H172" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>345</v>
+      </c>
+      <c r="C173" t="s">
         <v>367</v>
       </c>
-      <c r="E170" t="s">
-        <v>373</v>
-      </c>
-      <c r="F170" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>344</v>
-      </c>
-      <c r="C171" t="s">
-        <v>344</v>
-      </c>
-      <c r="E171" t="s">
-        <v>373</v>
-      </c>
-      <c r="F171" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>345</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="E173" t="s">
+        <v>371</v>
+      </c>
+      <c r="F173" t="s">
+        <v>372</v>
+      </c>
+      <c r="H173" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>346</v>
+      </c>
+      <c r="C174" t="s">
         <v>368</v>
       </c>
-      <c r="E172" t="s">
-        <v>373</v>
-      </c>
-      <c r="F172" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>346</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="E174" t="s">
+        <v>371</v>
+      </c>
+      <c r="F174" t="s">
+        <v>372</v>
+      </c>
+      <c r="H174" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>347</v>
+      </c>
+      <c r="C175" t="s">
         <v>369</v>
       </c>
-      <c r="E173" t="s">
-        <v>373</v>
-      </c>
-      <c r="F173" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>347</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="E175" t="s">
+        <v>371</v>
+      </c>
+      <c r="F175" t="s">
+        <v>372</v>
+      </c>
+      <c r="H175" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>348</v>
+      </c>
+      <c r="C176" t="s">
         <v>370</v>
       </c>
-      <c r="E174" t="s">
-        <v>373</v>
-      </c>
-      <c r="F174" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>348</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="E176" t="s">
         <v>371</v>
       </c>
-      <c r="E175" t="s">
-        <v>373</v>
-      </c>
-      <c r="F175" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>349</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="F176" t="s">
         <v>372</v>
       </c>
-      <c r="E176" t="s">
-        <v>373</v>
-      </c>
-      <c r="F176" t="s">
-        <v>374</v>
+      <c r="H176" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
   </sheetData>
